--- a/results/mp/logistic/corona/confidence/126/stop-words-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,6 +49,9 @@
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -67,67 +70,67 @@
     <t>hand</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>relief</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>care</t>
@@ -496,10 +499,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -557,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7226027397260274</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="C3">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D3">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -575,19 +578,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>0.925</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L3">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M3">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -599,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -607,13 +610,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4285714285714285</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C4">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D4">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -625,19 +628,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -649,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -657,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.313953488372093</v>
+        <v>0.3178294573643411</v>
       </c>
       <c r="C5">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D5">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -675,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5">
         <v>0.9130434782608695</v>
@@ -703,17 +706,41 @@
       </c>
     </row>
     <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.1677852348993289</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>124</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -725,21 +752,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8328981723237598</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L7">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M7">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -751,21 +778,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8181818181818182</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L8">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="M8">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -777,21 +804,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8113207547169812</v>
+        <v>0.78125</v>
       </c>
       <c r="L9">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="M9">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -803,21 +830,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -829,21 +856,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7872340425531915</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -855,21 +882,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7804878048780488</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -881,12 +908,12 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K13">
         <v>0.7758620689655172</v>
@@ -912,16 +939,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.76875</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L14">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="M14">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -933,21 +960,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7535211267605634</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L15">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M15">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -959,21 +986,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.74375</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -985,21 +1012,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.7421875</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L17">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1011,21 +1038,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.7083333333333334</v>
+        <v>0.7</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1037,21 +1064,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6507936507936508</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1063,21 +1090,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.64</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1089,21 +1116,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.625</v>
+        <v>0.64</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1115,21 +1142,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.611764705882353</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L22">
-        <v>208</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>208</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1141,21 +1168,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>132</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.6063829787234043</v>
+        <v>0.5970588235294118</v>
       </c>
       <c r="L23">
-        <v>57</v>
+        <v>203</v>
       </c>
       <c r="M23">
-        <v>57</v>
+        <v>203</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1167,21 +1194,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>37</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5813953488372093</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1193,21 +1220,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>18</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5728813559322034</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L25">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="M25">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1219,21 +1246,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>126</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5692307692307692</v>
+        <v>0.5525423728813559</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1245,21 +1272,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="L27">
         <v>36</v>
       </c>
-      <c r="K27">
-        <v>0.5690376569037657</v>
-      </c>
-      <c r="L27">
-        <v>136</v>
-      </c>
       <c r="M27">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1271,21 +1298,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>103</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.4857142857142857</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L28">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M28">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1297,21 +1324,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.3707865168539326</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1323,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
